--- a/TrainData/InputOutputArable.xlsx
+++ b/TrainData/InputOutputArable.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="749">
   <si>
     <t>Input</t>
   </si>
@@ -2181,12 +2181,6 @@
     <t>WBresidues_SQuant__mean</t>
   </si>
   <si>
-    <t>Input1</t>
-  </si>
-  <si>
-    <t>Output1</t>
-  </si>
-  <si>
     <t>farmManag_hours_JAN_mean</t>
   </si>
   <si>
@@ -2266,6 +2260,12 @@
   </si>
   <si>
     <t>DataType</t>
+  </si>
+  <si>
+    <t>Input_test</t>
+  </si>
+  <si>
+    <t>Output_test</t>
   </si>
 </sst>
 </file>
@@ -2294,7 +2294,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2313,6 +2313,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2326,7 +2332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2335,6 +2341,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2607,7 +2615,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2615,75 +2623,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H742"/>
+  <dimension ref="A1:H744"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
     <col min="7" max="7" width="14.5703125" customWidth="1"/>
     <col min="8" max="9" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>747</v>
+      </c>
+      <c r="C1" t="s">
+        <v>748</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>720</v>
-      </c>
       <c r="E1" t="s">
-        <v>721</v>
+        <v>1</v>
       </c>
       <c r="F1" t="s">
+        <v>744</v>
+      </c>
+      <c r="G1" t="s">
         <v>746</v>
       </c>
-      <c r="G1" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2"/>
+    </row>
+    <row r="2" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9">
+        <v>1</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2"/>
       <c r="E5" s="2">
@@ -2693,7 +2710,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2"/>
       <c r="E6" s="2">
@@ -2703,7 +2720,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2"/>
       <c r="E7" s="2">
@@ -2713,7 +2730,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" s="2"/>
       <c r="E8" s="2">
@@ -2723,7 +2740,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" s="2"/>
       <c r="E9" s="2">
@@ -2733,7 +2750,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" s="2"/>
       <c r="E10" s="2">
@@ -2743,7 +2760,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C11" s="2"/>
       <c r="E11" s="2">
@@ -2753,28 +2770,30 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2783,7 +2802,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2792,7 +2811,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -2801,7 +2820,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -2810,7 +2829,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2819,18 +2838,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>20</v>
+      </c>
       <c r="D19">
         <v>1</v>
       </c>
-      <c r="E19" s="2"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -2839,40 +2856,36 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C21" s="2"/>
       <c r="D21">
         <v>1</v>
       </c>
+      <c r="E21" s="2"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
       </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
       </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -2884,25 +2897,31 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
       </c>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
       </c>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -2911,25 +2930,25 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E28">
+        <v>29</v>
+      </c>
+      <c r="D28">
         <v>1</v>
       </c>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29">
+        <v>30</v>
+      </c>
+      <c r="D29">
         <v>1</v>
       </c>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2938,25 +2957,25 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31">
+        <v>32</v>
+      </c>
+      <c r="E31">
         <v>1</v>
       </c>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32">
+        <v>33</v>
+      </c>
+      <c r="E32">
         <v>1</v>
       </c>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -2965,7 +2984,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -2974,7 +2993,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -2983,7 +3002,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -2992,7 +3011,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -3001,7 +3020,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -3010,7 +3029,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -3019,7 +3038,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -3028,7 +3047,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -3037,7 +3056,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -3046,29 +3065,25 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
-      <c r="G43" t="s">
-        <v>2</v>
-      </c>
+      <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
-      <c r="G44" t="s">
-        <v>2</v>
-      </c>
+      <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -3079,25 +3094,29 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
-      <c r="G46" s="1"/>
+      <c r="G46" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
-      <c r="G47" s="1"/>
+      <c r="G47" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -3106,7 +3125,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -3115,7 +3134,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -3124,7 +3143,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -3133,7 +3152,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -3142,7 +3161,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -3151,7 +3170,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -3160,7 +3179,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -3169,7 +3188,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -3178,7 +3197,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -3187,7 +3206,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -3196,7 +3215,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -3205,7 +3224,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -3214,7 +3233,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -3223,7 +3242,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -3232,7 +3251,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -3241,43 +3260,43 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
       </c>
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
       </c>
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D67">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D68">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -3286,7 +3305,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -3295,7 +3314,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -3304,7 +3323,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -3313,7 +3332,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -3322,61 +3341,61 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
       </c>
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
       </c>
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D80">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D81">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="G81" s="1"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D82">
         <v>1</v>
@@ -3385,25 +3404,25 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E83">
+        <v>84</v>
+      </c>
+      <c r="D83">
         <v>1</v>
       </c>
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E84">
+        <v>85</v>
+      </c>
+      <c r="D84">
         <v>1</v>
       </c>
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -3412,7 +3431,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -3421,7 +3440,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -3430,7 +3449,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -3439,16 +3458,16 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D89">
+        <v>90</v>
+      </c>
+      <c r="E89">
         <v>1</v>
       </c>
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -3457,26 +3476,28 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B91">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="D91">
         <v>1</v>
       </c>
+      <c r="G91" s="1"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D92">
-        <v>1</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="G92" s="1"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
       </c>
       <c r="D93">
         <v>1</v>
@@ -3484,7 +3505,7 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D94">
         <v>1</v>
@@ -3492,7 +3513,7 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D95">
         <v>1</v>
@@ -3500,7 +3521,7 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D96">
         <v>1</v>
@@ -3508,7 +3529,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D97">
         <v>1</v>
@@ -3516,20 +3537,15 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C98" s="2"/>
+        <v>99</v>
+      </c>
       <c r="D98">
         <v>1</v>
       </c>
-      <c r="E98" s="2">
-        <v>1</v>
-      </c>
-      <c r="F98" s="2"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -3537,31 +3553,34 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>103</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="C100" s="2"/>
       <c r="D100">
         <v>1</v>
       </c>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E101">
+        <v>102</v>
+      </c>
+      <c r="D101">
         <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E102">
+        <v>103</v>
+      </c>
+      <c r="D102">
         <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -3569,23 +3588,23 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D104">
+        <v>105</v>
+      </c>
+      <c r="E104">
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D105">
+        <v>106</v>
+      </c>
+      <c r="E105">
         <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D106">
         <v>1</v>
@@ -3593,23 +3612,23 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E107">
+        <v>108</v>
+      </c>
+      <c r="D107">
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E108">
+        <v>109</v>
+      </c>
+      <c r="D108">
         <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -3617,23 +3636,23 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D110">
+        <v>111</v>
+      </c>
+      <c r="E110">
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D111">
+        <v>112</v>
+      </c>
+      <c r="E111">
         <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D112">
         <v>1</v>
@@ -3641,7 +3660,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D113">
         <v>1</v>
@@ -3649,7 +3668,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D114">
         <v>1</v>
@@ -3657,7 +3676,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D115">
         <v>1</v>
@@ -3665,7 +3684,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D116">
         <v>1</v>
@@ -3673,7 +3692,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -3681,7 +3700,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D118">
         <v>1</v>
@@ -3689,7 +3708,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D119">
         <v>1</v>
@@ -3697,7 +3716,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D120">
         <v>1</v>
@@ -3705,7 +3724,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D121">
         <v>1</v>
@@ -3713,7 +3732,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -3721,7 +3740,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D123">
         <v>1</v>
@@ -3729,7 +3748,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D124">
         <v>1</v>
@@ -3737,7 +3756,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D125">
         <v>1</v>
@@ -3745,7 +3764,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D126">
         <v>1</v>
@@ -3753,7 +3772,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D127">
         <v>1</v>
@@ -3761,7 +3780,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D128">
         <v>1</v>
@@ -3769,7 +3788,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D129">
         <v>1</v>
@@ -3777,7 +3796,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D130">
         <v>1</v>
@@ -3785,7 +3804,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D131">
         <v>1</v>
@@ -3793,7 +3812,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D132">
         <v>1</v>
@@ -3801,7 +3820,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D133">
         <v>1</v>
@@ -3809,7 +3828,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D134">
         <v>1</v>
@@ -3817,7 +3836,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D135">
         <v>1</v>
@@ -3825,7 +3844,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D136">
         <v>1</v>
@@ -3833,7 +3852,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D137">
         <v>1</v>
@@ -3841,7 +3860,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D138">
         <v>1</v>
@@ -3849,7 +3868,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D139">
         <v>1</v>
@@ -3857,7 +3876,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D140">
         <v>1</v>
@@ -3865,7 +3884,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D141">
         <v>1</v>
@@ -3873,7 +3892,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D142">
         <v>1</v>
@@ -3881,38 +3900,38 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
+      </c>
+      <c r="D144">
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D146">
-        <v>1</v>
+        <v>147</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D147">
-        <v>1</v>
+        <v>148</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D148">
         <v>1</v>
@@ -3920,7 +3939,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D149">
         <v>1</v>
@@ -3928,7 +3947,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D150">
         <v>1</v>
@@ -3936,7 +3955,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D151">
         <v>1</v>
@@ -3944,7 +3963,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D152">
         <v>1</v>
@@ -3952,53 +3971,53 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
+      </c>
+      <c r="D154">
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D159">
-        <v>1</v>
+        <v>160</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D160">
-        <v>1</v>
+        <v>161</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D161">
         <v>1</v>
@@ -4006,23 +4025,23 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E162">
+        <v>163</v>
+      </c>
+      <c r="D162">
         <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E163">
+        <v>164</v>
+      </c>
+      <c r="D163">
         <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E164">
         <v>1</v>
@@ -4030,7 +4049,7 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E165">
         <v>1</v>
@@ -4038,7 +4057,7 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E166">
         <v>1</v>
@@ -4046,7 +4065,7 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E167">
         <v>1</v>
@@ -4054,15 +4073,15 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D168">
+        <v>169</v>
+      </c>
+      <c r="E168">
         <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E169">
         <v>1</v>
@@ -4070,10 +4089,7 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B170">
-        <v>1</v>
+        <v>171</v>
       </c>
       <c r="D170">
         <v>1</v>
@@ -4081,15 +4097,18 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D171">
+        <v>172</v>
+      </c>
+      <c r="E171">
         <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
+      </c>
+      <c r="B172">
+        <v>1</v>
       </c>
       <c r="D172">
         <v>1</v>
@@ -4097,7 +4116,7 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D173">
         <v>1</v>
@@ -4105,7 +4124,7 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D174">
         <v>1</v>
@@ -4113,7 +4132,7 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D175">
         <v>1</v>
@@ -4121,7 +4140,7 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D176">
         <v>1</v>
@@ -4129,20 +4148,15 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C177" s="2"/>
+        <v>178</v>
+      </c>
       <c r="D177">
         <v>1</v>
       </c>
-      <c r="E177" s="2">
-        <v>1</v>
-      </c>
-      <c r="F177" s="2"/>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D178">
         <v>1</v>
@@ -4150,31 +4164,36 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>182</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="C179" s="2"/>
       <c r="D179">
         <v>1</v>
       </c>
+      <c r="E179" s="2">
+        <v>1</v>
+      </c>
+      <c r="F179" s="2"/>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E180">
+        <v>181</v>
+      </c>
+      <c r="D180">
         <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E181">
+        <v>182</v>
+      </c>
+      <c r="D181">
         <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E182">
         <v>1</v>
@@ -4182,23 +4201,23 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D183">
+        <v>184</v>
+      </c>
+      <c r="E183">
         <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D184">
+        <v>185</v>
+      </c>
+      <c r="E184">
         <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D185">
         <v>1</v>
@@ -4206,23 +4225,23 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E186">
+        <v>187</v>
+      </c>
+      <c r="D186">
         <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E187">
+        <v>188</v>
+      </c>
+      <c r="D187">
         <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E188">
         <v>1</v>
@@ -4230,23 +4249,23 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D189">
+        <v>190</v>
+      </c>
+      <c r="E189">
         <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D190">
+        <v>191</v>
+      </c>
+      <c r="E190">
         <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D191">
         <v>1</v>
@@ -4254,7 +4273,7 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D192">
         <v>1</v>
@@ -4262,7 +4281,7 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D193">
         <v>1</v>
@@ -4270,7 +4289,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D194">
         <v>1</v>
@@ -4278,7 +4297,7 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D195">
         <v>1</v>
@@ -4286,7 +4305,7 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D196">
         <v>1</v>
@@ -4294,7 +4313,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D197">
         <v>1</v>
@@ -4302,7 +4321,7 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D198">
         <v>1</v>
@@ -4310,7 +4329,7 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D199">
         <v>1</v>
@@ -4318,7 +4337,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D200">
         <v>1</v>
@@ -4326,7 +4345,7 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D201">
         <v>1</v>
@@ -4334,7 +4353,7 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D202">
         <v>1</v>
@@ -4342,7 +4361,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D203">
         <v>1</v>
@@ -4350,7 +4369,7 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D204">
         <v>1</v>
@@ -4358,7 +4377,7 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D205">
         <v>1</v>
@@ -4366,7 +4385,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D206">
         <v>1</v>
@@ -4374,7 +4393,7 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D207">
         <v>1</v>
@@ -4382,7 +4401,7 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D208">
         <v>1</v>
@@ -4390,7 +4409,7 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D209">
         <v>1</v>
@@ -4398,7 +4417,7 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D210">
         <v>1</v>
@@ -4406,7 +4425,7 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D211">
         <v>1</v>
@@ -4414,7 +4433,7 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D212">
         <v>1</v>
@@ -4422,7 +4441,7 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D213">
         <v>1</v>
@@ -4430,7 +4449,7 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D214">
         <v>1</v>
@@ -4438,7 +4457,7 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D215">
         <v>1</v>
@@ -4446,7 +4465,7 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D216">
         <v>1</v>
@@ -4454,7 +4473,7 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D217">
         <v>1</v>
@@ -4462,7 +4481,7 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D218">
         <v>1</v>
@@ -4470,7 +4489,7 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D219">
         <v>1</v>
@@ -4478,7 +4497,7 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D220">
         <v>1</v>
@@ -4486,7 +4505,7 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D221">
         <v>1</v>
@@ -4494,38 +4513,38 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D225">
-        <v>1</v>
+        <v>226</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D226">
-        <v>1</v>
+        <v>227</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D227">
         <v>1</v>
@@ -4533,7 +4552,7 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D228">
         <v>1</v>
@@ -4541,7 +4560,7 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D229">
         <v>1</v>
@@ -4549,7 +4568,7 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D230">
         <v>1</v>
@@ -4557,7 +4576,7 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D231">
         <v>1</v>
@@ -4565,317 +4584,317 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D238">
-        <v>1</v>
+        <v>239</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D239">
-        <v>1</v>
+        <v>240</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D240">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A241" s="1" t="s">
+      <c r="D242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E241">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A242" s="1" t="s">
+      <c r="E243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="E242">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A243" s="1" t="s">
+      <c r="E244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="E243">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A244" s="1" t="s">
+      <c r="E245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E244">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A245" s="1" t="s">
+      <c r="E246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E245">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A246" s="1" t="s">
+      <c r="E247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="E246">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A247" s="1" t="s">
+      <c r="E248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D247">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A248" s="1" t="s">
+      <c r="D249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="E248">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A249" s="1" t="s">
+      <c r="E250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B249">
-        <v>1</v>
-      </c>
-      <c r="D249">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A250" s="1" t="s">
+      <c r="B251">
+        <v>1</v>
+      </c>
+      <c r="D251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D250">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A251" s="1" t="s">
+      <c r="D252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D251">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A252" s="1" t="s">
+      <c r="D253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="D252">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A253" s="1" t="s">
+      <c r="D254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D253">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A254" s="1" t="s">
+      <c r="D255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="D254">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A255" s="1" t="s">
+      <c r="D256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D255">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A256" s="1" t="s">
+      <c r="D257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C256" s="2"/>
-      <c r="D256">
-        <v>1</v>
-      </c>
-      <c r="E256" s="2">
-        <v>1</v>
-      </c>
-      <c r="F256" s="2"/>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A257" s="1" t="s">
+      <c r="C258" s="2"/>
+      <c r="D258">
+        <v>1</v>
+      </c>
+      <c r="E258" s="2">
+        <v>1</v>
+      </c>
+      <c r="F258" s="2"/>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D257">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A258" s="1" t="s">
+      <c r="D259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D258">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A259" s="1" t="s">
+      <c r="D260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="E259">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A260" s="1" t="s">
+      <c r="E261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="E260">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A261" s="1" t="s">
+      <c r="E262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="E261">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A262" s="1" t="s">
+      <c r="E263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D262">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A263" s="1" t="s">
+      <c r="D264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D263">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A264" s="1" t="s">
+      <c r="D265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D264">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A265" s="1" t="s">
+      <c r="D266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="E265">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A266" s="1" t="s">
+      <c r="E267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="E266">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A267" s="1" t="s">
+      <c r="E268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="E267">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A268" s="1" t="s">
+      <c r="E269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D268">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A269" s="1" t="s">
+      <c r="D270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D269">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A270" s="1" t="s">
+      <c r="D271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="D270">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A271" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D271">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A272" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="D272">
         <v>1</v>
@@ -4883,7 +4902,7 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D273">
         <v>1</v>
@@ -4891,7 +4910,7 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D274">
         <v>1</v>
@@ -4899,7 +4918,7 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D275">
         <v>1</v>
@@ -4907,7 +4926,7 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D276">
         <v>1</v>
@@ -4915,7 +4934,7 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D277">
         <v>1</v>
@@ -4923,7 +4942,7 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D278">
         <v>1</v>
@@ -4931,7 +4950,7 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D279">
         <v>1</v>
@@ -4939,7 +4958,7 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D280">
         <v>1</v>
@@ -4947,7 +4966,7 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D281">
         <v>1</v>
@@ -4955,7 +4974,7 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D282">
         <v>1</v>
@@ -4963,7 +4982,7 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D283">
         <v>1</v>
@@ -4971,7 +4990,7 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D284">
         <v>1</v>
@@ -4979,7 +4998,7 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D285">
         <v>1</v>
@@ -4987,7 +5006,7 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D286">
         <v>1</v>
@@ -4995,7 +5014,7 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D287">
         <v>1</v>
@@ -5003,7 +5022,7 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D288">
         <v>1</v>
@@ -5011,7 +5030,7 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D289">
         <v>1</v>
@@ -5019,7 +5038,7 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D290">
         <v>1</v>
@@ -5027,7 +5046,7 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D291">
         <v>1</v>
@@ -5035,7 +5054,7 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D292">
         <v>1</v>
@@ -5043,7 +5062,7 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D293">
         <v>1</v>
@@ -5051,7 +5070,7 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D294">
         <v>1</v>
@@ -5059,7 +5078,7 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D295">
         <v>1</v>
@@ -5067,7 +5086,7 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D296">
         <v>1</v>
@@ -5075,7 +5094,7 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D297">
         <v>1</v>
@@ -5083,38 +5102,38 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
+      </c>
+      <c r="D298">
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
+      </c>
+      <c r="D299">
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D301">
-        <v>1</v>
+        <v>302</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="D302">
-        <v>1</v>
+        <v>303</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D303">
         <v>1</v>
@@ -5122,7 +5141,7 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D304">
         <v>1</v>
@@ -5130,7 +5149,7 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D305">
         <v>1</v>
@@ -5138,7 +5157,7 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D306">
         <v>1</v>
@@ -5146,7 +5165,7 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D307">
         <v>1</v>
@@ -5154,53 +5173,53 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
+      </c>
+      <c r="D308">
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
+      </c>
+      <c r="D309">
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="D314">
-        <v>1</v>
+        <v>315</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="D315">
-        <v>1</v>
+        <v>316</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D316">
         <v>1</v>
@@ -5208,23 +5227,23 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="E317">
+        <v>318</v>
+      </c>
+      <c r="D317">
         <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="E318">
+        <v>319</v>
+      </c>
+      <c r="D318">
         <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E319">
         <v>1</v>
@@ -5232,7 +5251,7 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E320">
         <v>1</v>
@@ -5240,7 +5259,7 @@
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E321">
         <v>1</v>
@@ -5248,7 +5267,7 @@
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E322">
         <v>1</v>
@@ -5256,15 +5275,15 @@
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="D323">
+        <v>324</v>
+      </c>
+      <c r="E323">
         <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E324">
         <v>1</v>
@@ -5272,27 +5291,23 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C325" s="2"/>
-      <c r="E325" s="2">
-        <v>1</v>
-      </c>
-      <c r="F325" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="D325">
+        <v>1</v>
+      </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="C326" s="2"/>
-      <c r="E326" s="2">
-        <v>1</v>
-      </c>
-      <c r="F326" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="E326">
+        <v>1</v>
+      </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C327" s="2"/>
       <c r="E327" s="2">
@@ -5302,25 +5317,27 @@
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="B328" s="3"/>
-      <c r="D328" s="3">
-        <v>1</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="C328" s="2"/>
+      <c r="E328" s="2">
+        <v>1</v>
+      </c>
+      <c r="F328" s="2"/>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="B329" s="3"/>
-      <c r="D329" s="3">
-        <v>1</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="C329" s="2"/>
+      <c r="E329" s="2">
+        <v>1</v>
+      </c>
+      <c r="F329" s="2"/>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B330" s="3"/>
       <c r="D330" s="3">
@@ -5329,7 +5346,7 @@
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B331" s="3"/>
       <c r="D331" s="3">
@@ -5338,27 +5355,25 @@
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="C332" s="3"/>
-      <c r="E332" s="3">
-        <v>1</v>
-      </c>
-      <c r="F332" s="3"/>
+        <v>333</v>
+      </c>
+      <c r="B332" s="3"/>
+      <c r="D332" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="C333" s="3"/>
-      <c r="E333" s="3">
-        <v>1</v>
-      </c>
-      <c r="F333" s="3"/>
+        <v>334</v>
+      </c>
+      <c r="B333" s="3"/>
+      <c r="D333" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C334" s="3"/>
       <c r="E334" s="3">
@@ -5368,53 +5383,55 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B335" s="5"/>
-      <c r="C335" s="5"/>
-      <c r="D335" s="5">
-        <v>1</v>
-      </c>
-      <c r="E335" s="5"/>
-      <c r="F335" s="5"/>
+        <v>336</v>
+      </c>
+      <c r="C335" s="3"/>
+      <c r="E335" s="3">
+        <v>1</v>
+      </c>
+      <c r="F335" s="3"/>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="B336" s="5"/>
-      <c r="C336" s="6"/>
-      <c r="D336" s="5"/>
-      <c r="E336" s="6">
-        <v>1</v>
-      </c>
-      <c r="F336" s="6"/>
+        <v>337</v>
+      </c>
+      <c r="C336" s="3"/>
+      <c r="E336" s="3">
+        <v>1</v>
+      </c>
+      <c r="F336" s="3"/>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B337" s="5"/>
-      <c r="C337" s="6"/>
-      <c r="D337" s="5"/>
-      <c r="E337" s="6">
-        <v>1</v>
-      </c>
-      <c r="F337" s="6"/>
+      <c r="C337" s="5"/>
+      <c r="D337" s="5">
+        <v>1</v>
+      </c>
+      <c r="E337" s="5"/>
+      <c r="F337" s="5"/>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D338">
-        <v>1</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="B338" s="5"/>
+      <c r="C338" s="6"/>
+      <c r="D338" s="5"/>
+      <c r="E338" s="6">
+        <v>1</v>
+      </c>
+      <c r="F338" s="6"/>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>342</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="B339" s="5"/>
       <c r="C339" s="6"/>
+      <c r="D339" s="5"/>
       <c r="E339" s="6">
         <v>1</v>
       </c>
@@ -5422,25 +5439,25 @@
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="C340" s="6"/>
-      <c r="E340" s="6">
-        <v>1</v>
-      </c>
-      <c r="F340" s="6"/>
+        <v>341</v>
+      </c>
+      <c r="D340">
+        <v>1</v>
+      </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="D341">
-        <v>1</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="C341" s="6"/>
+      <c r="E341" s="6">
+        <v>1</v>
+      </c>
+      <c r="F341" s="6"/>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C342" s="6"/>
       <c r="E342" s="6">
@@ -5450,25 +5467,25 @@
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="C343" s="6"/>
-      <c r="E343" s="6">
-        <v>1</v>
-      </c>
-      <c r="F343" s="6"/>
+        <v>344</v>
+      </c>
+      <c r="D343">
+        <v>1</v>
+      </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="D344">
-        <v>1</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="C344" s="6"/>
+      <c r="E344" s="6">
+        <v>1</v>
+      </c>
+      <c r="F344" s="6"/>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C345" s="6"/>
       <c r="E345" s="6">
@@ -5478,25 +5495,25 @@
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C346" s="6"/>
-      <c r="E346" s="6">
-        <v>1</v>
-      </c>
-      <c r="F346" s="6"/>
+        <v>347</v>
+      </c>
+      <c r="D346">
+        <v>1</v>
+      </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="D347">
-        <v>1</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="C347" s="6"/>
+      <c r="E347" s="6">
+        <v>1</v>
+      </c>
+      <c r="F347" s="6"/>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C348" s="6"/>
       <c r="E348" s="6">
@@ -5506,25 +5523,25 @@
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="C349" s="6"/>
-      <c r="E349" s="6">
-        <v>1</v>
-      </c>
-      <c r="F349" s="6"/>
+        <v>350</v>
+      </c>
+      <c r="D349">
+        <v>1</v>
+      </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="D350">
-        <v>1</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="C350" s="6"/>
+      <c r="E350" s="6">
+        <v>1</v>
+      </c>
+      <c r="F350" s="6"/>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C351" s="6"/>
       <c r="E351" s="6">
@@ -5534,25 +5551,25 @@
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C352" s="6"/>
-      <c r="E352" s="6">
-        <v>1</v>
-      </c>
-      <c r="F352" s="6"/>
+        <v>353</v>
+      </c>
+      <c r="D352">
+        <v>1</v>
+      </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="D353">
-        <v>1</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="C353" s="6"/>
+      <c r="E353" s="6">
+        <v>1</v>
+      </c>
+      <c r="F353" s="6"/>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C354" s="6"/>
       <c r="E354" s="6">
@@ -5562,25 +5579,25 @@
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="C355" s="6"/>
-      <c r="E355" s="6">
-        <v>1</v>
-      </c>
-      <c r="F355" s="6"/>
+        <v>356</v>
+      </c>
+      <c r="D355">
+        <v>1</v>
+      </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="D356">
-        <v>1</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="C356" s="6"/>
+      <c r="E356" s="6">
+        <v>1</v>
+      </c>
+      <c r="F356" s="6"/>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C357" s="6"/>
       <c r="E357" s="6">
@@ -5590,25 +5607,25 @@
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="C358" s="6"/>
-      <c r="E358" s="6">
-        <v>1</v>
-      </c>
-      <c r="F358" s="6"/>
+        <v>359</v>
+      </c>
+      <c r="D358">
+        <v>1</v>
+      </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="D359">
-        <v>1</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="C359" s="6"/>
+      <c r="E359" s="6">
+        <v>1</v>
+      </c>
+      <c r="F359" s="6"/>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C360" s="6"/>
       <c r="E360" s="6">
@@ -5618,25 +5635,25 @@
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="C361" s="6"/>
-      <c r="E361" s="6">
-        <v>1</v>
-      </c>
-      <c r="F361" s="6"/>
+        <v>362</v>
+      </c>
+      <c r="D361">
+        <v>1</v>
+      </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="D362">
-        <v>1</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="C362" s="6"/>
+      <c r="E362" s="6">
+        <v>1</v>
+      </c>
+      <c r="F362" s="6"/>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C363" s="6"/>
       <c r="E363" s="6">
@@ -5646,25 +5663,25 @@
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="C364" s="6"/>
-      <c r="E364" s="6">
-        <v>1</v>
-      </c>
-      <c r="F364" s="6"/>
+        <v>365</v>
+      </c>
+      <c r="D364">
+        <v>1</v>
+      </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="D365">
-        <v>1</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="C365" s="6"/>
+      <c r="E365" s="6">
+        <v>1</v>
+      </c>
+      <c r="F365" s="6"/>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C366" s="6"/>
       <c r="E366" s="6">
@@ -5674,25 +5691,25 @@
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="C367" s="6"/>
-      <c r="E367" s="6">
-        <v>1</v>
-      </c>
-      <c r="F367" s="6"/>
+        <v>368</v>
+      </c>
+      <c r="D367">
+        <v>1</v>
+      </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="D368">
-        <v>1</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="C368" s="6"/>
+      <c r="E368" s="6">
+        <v>1</v>
+      </c>
+      <c r="F368" s="6"/>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C369" s="6"/>
       <c r="E369" s="6">
@@ -5702,17 +5719,15 @@
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C370" s="6"/>
-      <c r="E370" s="6">
-        <v>1</v>
-      </c>
-      <c r="F370" s="6"/>
+        <v>371</v>
+      </c>
+      <c r="D370">
+        <v>1</v>
+      </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C371" s="6"/>
       <c r="E371" s="6">
@@ -5722,15 +5737,17 @@
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="D372">
-        <v>1</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="C372" s="6"/>
+      <c r="E372" s="6">
+        <v>1</v>
+      </c>
+      <c r="F372" s="6"/>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C373" s="6"/>
       <c r="E373" s="6">
@@ -5740,17 +5757,15 @@
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="C374" s="6"/>
-      <c r="E374" s="6">
-        <v>1</v>
-      </c>
-      <c r="F374" s="6"/>
+        <v>375</v>
+      </c>
+      <c r="D374">
+        <v>1</v>
+      </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C375" s="6"/>
       <c r="E375" s="6">
@@ -5760,61 +5775,65 @@
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="B376" s="4"/>
-      <c r="C376" s="4"/>
-      <c r="D376" s="4"/>
-      <c r="E376" s="4"/>
-      <c r="F376" s="4"/>
+        <v>377</v>
+      </c>
+      <c r="C376" s="6"/>
+      <c r="E376" s="6">
+        <v>1</v>
+      </c>
+      <c r="F376" s="6"/>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="D377">
-        <v>1</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="C377" s="6"/>
+      <c r="E377" s="6">
+        <v>1</v>
+      </c>
+      <c r="F377" s="6"/>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="C378" s="6"/>
-      <c r="E378" s="6">
-        <v>1</v>
-      </c>
-      <c r="F378" s="6"/>
+        <v>379</v>
+      </c>
+      <c r="B378" s="4"/>
+      <c r="C378" s="4"/>
+      <c r="D378" s="4"/>
+      <c r="E378" s="4"/>
+      <c r="F378" s="4"/>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="B379" s="4"/>
-      <c r="C379" s="4"/>
-      <c r="D379" s="4"/>
-      <c r="E379" s="4"/>
-      <c r="F379" s="4"/>
+        <v>380</v>
+      </c>
+      <c r="D379">
+        <v>1</v>
+      </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="E380">
-        <v>1</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="C380" s="6"/>
+      <c r="E380" s="6">
+        <v>1</v>
+      </c>
+      <c r="F380" s="6"/>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="E381">
-        <v>1</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="B381" s="4"/>
+      <c r="C381" s="4"/>
+      <c r="D381" s="4"/>
+      <c r="E381" s="4"/>
+      <c r="F381" s="4"/>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E382">
         <v>1</v>
@@ -5822,7 +5841,7 @@
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E383">
         <v>1</v>
@@ -5830,62 +5849,52 @@
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A385" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A386" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="E384">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A385" s="1" t="s">
+      <c r="E386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A387" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="E385">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A386" s="1" t="s">
+      <c r="E387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A388" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="E386">
-        <v>1</v>
-      </c>
-      <c r="H386" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A387" s="1" t="s">
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A389" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="E387">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A388" s="1" t="s">
+      <c r="E389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A390" s="1" t="s">
         <v>391</v>
-      </c>
-      <c r="B388" s="4"/>
-      <c r="C388" s="4"/>
-      <c r="D388" s="4"/>
-      <c r="E388" s="4"/>
-      <c r="F388" s="4"/>
-    </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A389" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="B389" s="4"/>
-      <c r="C389" s="4"/>
-      <c r="D389" s="4"/>
-      <c r="E389" s="4"/>
-      <c r="F389" s="4"/>
-    </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A390" s="1" t="s">
-        <v>393</v>
       </c>
       <c r="B390" s="4"/>
       <c r="C390" s="4"/>
@@ -5893,9 +5902,9 @@
       <c r="E390" s="4"/>
       <c r="F390" s="4"/>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B391" s="4"/>
       <c r="C391" s="4"/>
@@ -5903,9 +5912,9 @@
       <c r="E391" s="4"/>
       <c r="F391" s="4"/>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B392" s="4"/>
       <c r="C392" s="4"/>
@@ -5913,9 +5922,9 @@
       <c r="E392" s="4"/>
       <c r="F392" s="4"/>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B393" s="4"/>
       <c r="C393" s="4"/>
@@ -5923,9 +5932,9 @@
       <c r="E393" s="4"/>
       <c r="F393" s="4"/>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B394" s="4"/>
       <c r="C394" s="4"/>
@@ -5933,75 +5942,79 @@
       <c r="E394" s="4"/>
       <c r="F394" s="4"/>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B395" s="4"/>
+      <c r="C395" s="4"/>
+      <c r="D395" s="4"/>
+      <c r="E395" s="4"/>
+      <c r="F395" s="4"/>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A396" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B396" s="4"/>
+      <c r="C396" s="4"/>
+      <c r="D396" s="4"/>
+      <c r="E396" s="4"/>
+      <c r="F396" s="4"/>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A397" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="E395">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A396" s="1" t="s">
+      <c r="E397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A398" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="E396">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A397" s="1" t="s">
+      <c r="E398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A399" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="D397">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A398" s="1" t="s">
+      <c r="D399">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A400" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="E398">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A399" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="D399">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A400" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="B400" s="4"/>
-      <c r="C400" s="4"/>
-      <c r="D400" s="4"/>
-      <c r="E400" s="4"/>
-      <c r="F400" s="4"/>
+      <c r="E400">
+        <v>1</v>
+      </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="E401">
+        <v>402</v>
+      </c>
+      <c r="D401">
         <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="E402">
-        <v>1</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="B402" s="4"/>
+      <c r="C402" s="4"/>
+      <c r="D402" s="4"/>
+      <c r="E402" s="4"/>
+      <c r="F402" s="4"/>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E403">
         <v>1</v>
@@ -6009,41 +6022,41 @@
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="D404">
+        <v>405</v>
+      </c>
+      <c r="E404">
         <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B405" s="4"/>
-      <c r="C405" s="4"/>
-      <c r="D405" s="4"/>
-      <c r="E405" s="4"/>
-      <c r="F405" s="4"/>
+        <v>406</v>
+      </c>
+      <c r="E405">
+        <v>1</v>
+      </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="E406">
+        <v>407</v>
+      </c>
+      <c r="D406">
         <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="E407">
-        <v>1</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="B407" s="4"/>
+      <c r="C407" s="4"/>
+      <c r="D407" s="4"/>
+      <c r="E407" s="4"/>
+      <c r="F407" s="4"/>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E408">
         <v>1</v>
@@ -6051,41 +6064,41 @@
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="D409">
+        <v>410</v>
+      </c>
+      <c r="E409">
         <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B410" s="4"/>
-      <c r="C410" s="4"/>
-      <c r="D410" s="4"/>
-      <c r="E410" s="4"/>
-      <c r="F410" s="4"/>
+        <v>411</v>
+      </c>
+      <c r="E410">
+        <v>1</v>
+      </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="E411">
+        <v>412</v>
+      </c>
+      <c r="D411">
         <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="E412">
-        <v>1</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="B412" s="4"/>
+      <c r="C412" s="4"/>
+      <c r="D412" s="4"/>
+      <c r="E412" s="4"/>
+      <c r="F412" s="4"/>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E413">
         <v>1</v>
@@ -6093,41 +6106,41 @@
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="D414">
+        <v>415</v>
+      </c>
+      <c r="E414">
         <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="B415" s="4"/>
-      <c r="C415" s="4"/>
-      <c r="D415" s="4"/>
-      <c r="E415" s="4"/>
-      <c r="F415" s="4"/>
+        <v>416</v>
+      </c>
+      <c r="E415">
+        <v>1</v>
+      </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="E416">
+        <v>417</v>
+      </c>
+      <c r="D416">
         <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="E417">
-        <v>1</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="B417" s="4"/>
+      <c r="C417" s="4"/>
+      <c r="D417" s="4"/>
+      <c r="E417" s="4"/>
+      <c r="F417" s="4"/>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E418">
         <v>1</v>
@@ -6135,49 +6148,49 @@
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="D419">
+        <v>420</v>
+      </c>
+      <c r="E419">
         <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="D420">
+        <v>421</v>
+      </c>
+      <c r="E420">
         <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="B421" s="4"/>
-      <c r="C421" s="4"/>
-      <c r="D421" s="4"/>
-      <c r="E421" s="4"/>
-      <c r="F421" s="4"/>
+        <v>422</v>
+      </c>
+      <c r="D421">
+        <v>1</v>
+      </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="E422">
+        <v>423</v>
+      </c>
+      <c r="D422">
         <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="E423">
-        <v>1</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="B423" s="4"/>
+      <c r="C423" s="4"/>
+      <c r="D423" s="4"/>
+      <c r="E423" s="4"/>
+      <c r="F423" s="4"/>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E424">
         <v>1</v>
@@ -6185,23 +6198,23 @@
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="D425">
+        <v>426</v>
+      </c>
+      <c r="E425">
         <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="D426">
+        <v>427</v>
+      </c>
+      <c r="E426">
         <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D427">
         <v>1</v>
@@ -6209,7 +6222,7 @@
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D428">
         <v>1</v>
@@ -6217,33 +6230,33 @@
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="B429" s="4"/>
-      <c r="C429" s="4"/>
-      <c r="D429" s="4"/>
-      <c r="E429" s="4"/>
-      <c r="F429" s="4"/>
+        <v>430</v>
+      </c>
+      <c r="D429">
+        <v>1</v>
+      </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="E430">
+        <v>431</v>
+      </c>
+      <c r="D430">
         <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="E431">
-        <v>1</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="B431" s="4"/>
+      <c r="C431" s="4"/>
+      <c r="D431" s="4"/>
+      <c r="E431" s="4"/>
+      <c r="F431" s="4"/>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E432">
         <v>1</v>
@@ -6251,41 +6264,41 @@
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="D433">
+        <v>434</v>
+      </c>
+      <c r="E433">
         <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="B434" s="4"/>
-      <c r="C434" s="4"/>
-      <c r="D434" s="4"/>
-      <c r="E434" s="4"/>
-      <c r="F434" s="4"/>
+        <v>435</v>
+      </c>
+      <c r="E434">
+        <v>1</v>
+      </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="E435">
+        <v>436</v>
+      </c>
+      <c r="D435">
         <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="E436">
-        <v>1</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="B436" s="4"/>
+      <c r="C436" s="4"/>
+      <c r="D436" s="4"/>
+      <c r="E436" s="4"/>
+      <c r="F436" s="4"/>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E437">
         <v>1</v>
@@ -6293,41 +6306,41 @@
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="D438">
+        <v>439</v>
+      </c>
+      <c r="E438">
         <v>1</v>
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="B439" s="4"/>
-      <c r="C439" s="4"/>
-      <c r="D439" s="4"/>
-      <c r="E439" s="4"/>
-      <c r="F439" s="4"/>
+        <v>440</v>
+      </c>
+      <c r="E439">
+        <v>1</v>
+      </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="E440">
+        <v>441</v>
+      </c>
+      <c r="D440">
         <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="E441">
-        <v>1</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="B441" s="4"/>
+      <c r="C441" s="4"/>
+      <c r="D441" s="4"/>
+      <c r="E441" s="4"/>
+      <c r="F441" s="4"/>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E442">
         <v>1</v>
@@ -6335,23 +6348,23 @@
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="D443">
+        <v>444</v>
+      </c>
+      <c r="E443">
         <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="D444">
+        <v>445</v>
+      </c>
+      <c r="E444">
         <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D445">
         <v>1</v>
@@ -6359,7 +6372,7 @@
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D446">
         <v>1</v>
@@ -6367,7 +6380,7 @@
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D447">
         <v>1</v>
@@ -6375,7 +6388,7 @@
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D448">
         <v>1</v>
@@ -6383,7 +6396,7 @@
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D449">
         <v>1</v>
@@ -6391,7 +6404,7 @@
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D450">
         <v>1</v>
@@ -6399,7 +6412,7 @@
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D451">
         <v>1</v>
@@ -6407,7 +6420,7 @@
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D452">
         <v>1</v>
@@ -6415,33 +6428,33 @@
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="B453" s="4"/>
-      <c r="C453" s="4"/>
-      <c r="D453" s="4"/>
-      <c r="E453" s="4"/>
-      <c r="F453" s="4"/>
+        <v>454</v>
+      </c>
+      <c r="D453">
+        <v>1</v>
+      </c>
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="E454">
+        <v>455</v>
+      </c>
+      <c r="D454">
         <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="E455">
-        <v>1</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="B455" s="4"/>
+      <c r="C455" s="4"/>
+      <c r="D455" s="4"/>
+      <c r="E455" s="4"/>
+      <c r="F455" s="4"/>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E456">
         <v>1</v>
@@ -6449,41 +6462,41 @@
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="D457">
+        <v>458</v>
+      </c>
+      <c r="E457">
         <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B458" s="4"/>
-      <c r="C458" s="4"/>
-      <c r="D458" s="4"/>
-      <c r="E458" s="4"/>
-      <c r="F458" s="4"/>
+        <v>459</v>
+      </c>
+      <c r="E458">
+        <v>1</v>
+      </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="E459">
+        <v>460</v>
+      </c>
+      <c r="D459">
         <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="E460">
-        <v>1</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="B460" s="4"/>
+      <c r="C460" s="4"/>
+      <c r="D460" s="4"/>
+      <c r="E460" s="4"/>
+      <c r="F460" s="4"/>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E461">
         <v>1</v>
@@ -6491,41 +6504,41 @@
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="D462">
+        <v>463</v>
+      </c>
+      <c r="E462">
         <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B463" s="4"/>
-      <c r="C463" s="4"/>
-      <c r="D463" s="4"/>
-      <c r="E463" s="4"/>
-      <c r="F463" s="4"/>
+        <v>464</v>
+      </c>
+      <c r="E463">
+        <v>1</v>
+      </c>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="E464">
+        <v>465</v>
+      </c>
+      <c r="D464">
         <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="E465">
-        <v>1</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="B465" s="4"/>
+      <c r="C465" s="4"/>
+      <c r="D465" s="4"/>
+      <c r="E465" s="4"/>
+      <c r="F465" s="4"/>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E466">
         <v>1</v>
@@ -6533,41 +6546,41 @@
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="D467">
+        <v>468</v>
+      </c>
+      <c r="E467">
         <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="B468" s="4"/>
-      <c r="C468" s="4"/>
-      <c r="D468" s="4"/>
-      <c r="E468" s="4"/>
-      <c r="F468" s="4"/>
+        <v>469</v>
+      </c>
+      <c r="E468">
+        <v>1</v>
+      </c>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="E469">
+        <v>470</v>
+      </c>
+      <c r="D469">
         <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E470">
-        <v>1</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="B470" s="4"/>
+      <c r="C470" s="4"/>
+      <c r="D470" s="4"/>
+      <c r="E470" s="4"/>
+      <c r="F470" s="4"/>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E471">
         <v>1</v>
@@ -6575,203 +6588,203 @@
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="D472">
+        <v>473</v>
+      </c>
+      <c r="E472">
         <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="B473" s="4"/>
-      <c r="C473" s="4"/>
-      <c r="D473" s="4"/>
-      <c r="E473" s="4"/>
-      <c r="F473" s="4"/>
+        <v>474</v>
+      </c>
+      <c r="E473">
+        <v>1</v>
+      </c>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="E474">
+        <v>475</v>
+      </c>
+      <c r="D474">
         <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="E475">
-        <v>1</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="B475" s="4"/>
+      <c r="C475" s="4"/>
+      <c r="D475" s="4"/>
+      <c r="E475" s="4"/>
+      <c r="F475" s="4"/>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="D476">
+        <v>477</v>
+      </c>
+      <c r="E476">
         <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="B477" s="4"/>
-      <c r="C477" s="4"/>
-      <c r="D477" s="4"/>
-      <c r="E477" s="4"/>
-      <c r="F477" s="4"/>
+        <v>478</v>
+      </c>
+      <c r="E477">
+        <v>1</v>
+      </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="E478">
+        <v>479</v>
+      </c>
+      <c r="D478">
         <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="E479">
-        <v>1</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="B479" s="4"/>
+      <c r="C479" s="4"/>
+      <c r="D479" s="4"/>
+      <c r="E479" s="4"/>
+      <c r="F479" s="4"/>
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="E480">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A481" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="E481">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A482" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="D480">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A481" s="1" t="s">
+      <c r="D482">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A483" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="D481">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A482" s="1" t="s">
+      <c r="D483">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A484" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="D482">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A483" s="1" t="s">
+      <c r="D484">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A485" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="D483">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A484" s="1" t="s">
+      <c r="D485">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A486" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="D484">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A485" s="1" t="s">
+      <c r="D486">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A487" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="D485">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A486" s="1" t="s">
+      <c r="D487">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A488" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="D486">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A487" s="1" t="s">
+      <c r="D488">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A489" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="D487">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A488" s="1" t="s">
+      <c r="D489">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A490" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="D488">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A489" s="1" t="s">
+      <c r="D490">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A491" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="D489">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A490" s="1" t="s">
+      <c r="D491">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A492" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="D490">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A491" s="1" t="s">
+      <c r="D492">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A493" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="D491">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A492" s="1" t="s">
+      <c r="D493">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A494" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="D492">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A493" s="1" t="s">
+      <c r="D494">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A495" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="D493">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A494" s="1" t="s">
+      <c r="D495">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A496" s="1" t="s">
         <v>497</v>
-      </c>
-      <c r="D494">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A495" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="D495">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A496" s="1" t="s">
-        <v>499</v>
       </c>
       <c r="D496">
         <v>1</v>
@@ -6779,7 +6792,7 @@
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D497">
         <v>1</v>
@@ -6787,7 +6800,7 @@
     </row>
     <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D498">
         <v>1</v>
@@ -6795,31 +6808,23 @@
     </row>
     <row r="499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="B499" s="4"/>
-      <c r="C499" s="4"/>
-      <c r="D499" s="4"/>
-      <c r="E499" s="4">
-        <v>1</v>
-      </c>
-      <c r="F499" s="4"/>
+        <v>500</v>
+      </c>
+      <c r="D499">
+        <v>1</v>
+      </c>
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B500" s="4"/>
-      <c r="C500" s="4"/>
-      <c r="D500" s="4"/>
-      <c r="E500" s="4">
-        <v>1</v>
-      </c>
-      <c r="F500" s="4"/>
+        <v>501</v>
+      </c>
+      <c r="D500">
+        <v>1</v>
+      </c>
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B501" s="4"/>
       <c r="C501" s="4"/>
@@ -6831,7 +6836,7 @@
     </row>
     <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B502" s="4"/>
       <c r="C502" s="4"/>
@@ -6843,9 +6848,11 @@
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
-        <v>506</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="B503" s="4"/>
       <c r="C503" s="4"/>
+      <c r="D503" s="4"/>
       <c r="E503" s="4">
         <v>1</v>
       </c>
@@ -6853,9 +6860,11 @@
     </row>
     <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
-        <v>507</v>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="B504" s="4"/>
       <c r="C504" s="4"/>
+      <c r="D504" s="4"/>
       <c r="E504" s="4">
         <v>1</v>
       </c>
@@ -6863,7 +6872,7 @@
     </row>
     <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C505" s="4"/>
       <c r="E505" s="4">
@@ -6873,33 +6882,27 @@
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="B506" s="4"/>
+        <v>507</v>
+      </c>
       <c r="C506" s="4"/>
-      <c r="D506" s="4"/>
-      <c r="E506" s="4"/>
+      <c r="E506" s="4">
+        <v>1</v>
+      </c>
       <c r="F506" s="4"/>
-      <c r="G506" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="B507" s="4"/>
+        <v>508</v>
+      </c>
       <c r="C507" s="4"/>
-      <c r="D507" s="4"/>
-      <c r="E507" s="4"/>
+      <c r="E507" s="4">
+        <v>1</v>
+      </c>
       <c r="F507" s="4"/>
-      <c r="G507" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B508" s="4"/>
       <c r="C508" s="4"/>
@@ -6912,7 +6915,7 @@
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B509" s="4"/>
       <c r="C509" s="4"/>
@@ -6925,7 +6928,7 @@
     </row>
     <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B510" s="4"/>
       <c r="C510" s="4"/>
@@ -6938,7 +6941,7 @@
     </row>
     <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B511" s="4"/>
       <c r="C511" s="4"/>
@@ -6951,7 +6954,7 @@
     </row>
     <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B512" s="4"/>
       <c r="C512" s="4"/>
@@ -6964,7 +6967,7 @@
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B513" s="4"/>
       <c r="C513" s="4"/>
@@ -6977,7 +6980,7 @@
     </row>
     <row r="514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B514" s="4"/>
       <c r="C514" s="4"/>
@@ -6990,7 +6993,7 @@
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B515" s="4"/>
       <c r="C515" s="4"/>
@@ -7003,7 +7006,7 @@
     </row>
     <row r="516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A516" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B516" s="4"/>
       <c r="C516" s="4"/>
@@ -7016,7 +7019,7 @@
     </row>
     <row r="517" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B517" s="4"/>
       <c r="C517" s="4"/>
@@ -7029,7 +7032,7 @@
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B518" s="4"/>
       <c r="C518" s="4"/>
@@ -7042,7 +7045,7 @@
     </row>
     <row r="519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B519" s="4"/>
       <c r="C519" s="4"/>
@@ -7055,7 +7058,7 @@
     </row>
     <row r="520" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B520" s="4"/>
       <c r="C520" s="4"/>
@@ -7068,7 +7071,7 @@
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B521" s="4"/>
       <c r="C521" s="4"/>
@@ -7081,7 +7084,7 @@
     </row>
     <row r="522" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A522" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B522" s="4"/>
       <c r="C522" s="4"/>
@@ -7094,26 +7097,33 @@
     </row>
     <row r="523" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A523" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="E523">
-        <v>1</v>
+        <v>524</v>
+      </c>
+      <c r="B523" s="4"/>
+      <c r="C523" s="4"/>
+      <c r="D523" s="4"/>
+      <c r="E523" s="4"/>
+      <c r="F523" s="4"/>
+      <c r="G523" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="524" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A524" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="E524">
-        <v>1</v>
+        <v>525</v>
+      </c>
+      <c r="B524" s="4"/>
+      <c r="C524" s="4"/>
+      <c r="D524" s="4"/>
+      <c r="E524" s="4"/>
+      <c r="F524" s="4"/>
+      <c r="G524" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="B525">
-        <v>1</v>
+        <v>526</v>
       </c>
       <c r="E525">
         <v>1</v>
@@ -7121,38 +7131,37 @@
     </row>
     <row r="526" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A526" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="B526">
-        <v>1</v>
-      </c>
-      <c r="D526">
+        <v>527</v>
+      </c>
+      <c r="E526">
         <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="B527" s="7"/>
-      <c r="C527" s="7"/>
-      <c r="D527" s="7"/>
-      <c r="E527" s="7"/>
-      <c r="F527" s="7"/>
+        <v>528</v>
+      </c>
+      <c r="B527">
+        <v>1</v>
+      </c>
+      <c r="E527">
+        <v>1</v>
+      </c>
     </row>
     <row r="528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A528" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="B528" s="7"/>
-      <c r="C528" s="7"/>
-      <c r="D528" s="7"/>
-      <c r="E528" s="7"/>
-      <c r="F528" s="7"/>
+        <v>529</v>
+      </c>
+      <c r="B528">
+        <v>1</v>
+      </c>
+      <c r="D528">
+        <v>1</v>
+      </c>
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A529" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B529" s="7"/>
       <c r="C529" s="7"/>
@@ -7162,7 +7171,7 @@
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A530" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B530" s="7"/>
       <c r="C530" s="7"/>
@@ -7172,7 +7181,7 @@
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A531" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B531" s="7"/>
       <c r="C531" s="7"/>
@@ -7182,7 +7191,7 @@
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A532" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B532" s="7"/>
       <c r="C532" s="7"/>
@@ -7192,7 +7201,7 @@
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A533" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B533" s="7"/>
       <c r="C533" s="7"/>
@@ -7202,7 +7211,7 @@
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A534" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B534" s="7"/>
       <c r="C534" s="7"/>
@@ -7212,7 +7221,7 @@
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A535" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B535" s="7"/>
       <c r="C535" s="7"/>
@@ -7222,29 +7231,30 @@
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A536" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="C536">
-        <v>1</v>
-      </c>
-      <c r="E536">
-        <v>1</v>
-      </c>
+        <v>537</v>
+      </c>
+      <c r="B536" s="7"/>
+      <c r="C536" s="7"/>
+      <c r="D536" s="7"/>
+      <c r="E536" s="7"/>
+      <c r="F536" s="7"/>
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A537" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="C537">
-        <v>1</v>
-      </c>
-      <c r="E537">
-        <v>1</v>
-      </c>
+        <v>538</v>
+      </c>
+      <c r="B537" s="7"/>
+      <c r="C537" s="7"/>
+      <c r="D537" s="7"/>
+      <c r="E537" s="7"/>
+      <c r="F537" s="7"/>
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A538" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
+      </c>
+      <c r="C538">
+        <v>1</v>
       </c>
       <c r="E538">
         <v>1</v>
@@ -7252,7 +7262,10 @@
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A539" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
+      </c>
+      <c r="C539">
+        <v>1</v>
       </c>
       <c r="E539">
         <v>1</v>
@@ -7260,7 +7273,7 @@
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A540" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E540">
         <v>1</v>
@@ -7268,7 +7281,7 @@
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A541" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E541">
         <v>1</v>
@@ -7276,7 +7289,7 @@
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A542" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E542">
         <v>1</v>
@@ -7284,7 +7297,7 @@
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A543" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E543">
         <v>1</v>
@@ -7292,7 +7305,7 @@
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A544" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E544">
         <v>1</v>
@@ -7300,7 +7313,7 @@
     </row>
     <row r="545" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A545" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E545">
         <v>1</v>
@@ -7308,7 +7321,7 @@
     </row>
     <row r="546" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A546" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E546">
         <v>1</v>
@@ -7316,7 +7329,7 @@
     </row>
     <row r="547" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A547" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E547">
         <v>1</v>
@@ -7324,7 +7337,7 @@
     </row>
     <row r="548" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A548" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E548">
         <v>1</v>
@@ -7332,7 +7345,7 @@
     </row>
     <row r="549" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A549" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E549">
         <v>1</v>
@@ -7340,7 +7353,7 @@
     </row>
     <row r="550" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A550" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E550">
         <v>1</v>
@@ -7348,7 +7361,7 @@
     </row>
     <row r="551" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A551" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E551">
         <v>1</v>
@@ -7356,7 +7369,7 @@
     </row>
     <row r="552" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A552" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E552">
         <v>1</v>
@@ -7364,7 +7377,7 @@
     </row>
     <row r="553" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A553" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E553">
         <v>1</v>
@@ -7372,7 +7385,7 @@
     </row>
     <row r="554" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A554" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E554">
         <v>1</v>
@@ -7380,7 +7393,7 @@
     </row>
     <row r="555" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A555" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E555">
         <v>1</v>
@@ -7388,7 +7401,7 @@
     </row>
     <row r="556" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A556" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E556">
         <v>1</v>
@@ -7396,15 +7409,15 @@
     </row>
     <row r="557" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A557" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="D557">
+        <v>558</v>
+      </c>
+      <c r="E557">
         <v>1</v>
       </c>
     </row>
     <row r="558" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A558" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E558">
         <v>1</v>
@@ -7412,15 +7425,15 @@
     </row>
     <row r="559" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A559" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="E559">
+        <v>560</v>
+      </c>
+      <c r="D559">
         <v>1</v>
       </c>
     </row>
     <row r="560" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A560" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E560">
         <v>1</v>
@@ -7428,35 +7441,31 @@
     </row>
     <row r="561" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A561" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="E561">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A562" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="E562">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A563" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="D561">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A562" t="s">
-        <v>722</v>
-      </c>
-      <c r="C562" s="2"/>
-      <c r="E562" s="2">
-        <v>1</v>
-      </c>
-      <c r="F562" s="2"/>
-    </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A563" t="s">
-        <v>723</v>
-      </c>
-      <c r="C563" s="2"/>
-      <c r="E563" s="2">
-        <v>1</v>
-      </c>
-      <c r="F563" s="2"/>
+      <c r="D563">
+        <v>1</v>
+      </c>
     </row>
     <row r="564" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="C564" s="2"/>
       <c r="E564" s="2">
@@ -7466,7 +7475,7 @@
     </row>
     <row r="565" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="C565" s="2"/>
       <c r="E565" s="2">
@@ -7476,7 +7485,7 @@
     </row>
     <row r="566" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C566" s="2"/>
       <c r="E566" s="2">
@@ -7486,7 +7495,7 @@
     </row>
     <row r="567" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="C567" s="2"/>
       <c r="E567" s="2">
@@ -7496,7 +7505,7 @@
     </row>
     <row r="568" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="C568" s="2"/>
       <c r="E568" s="2">
@@ -7506,7 +7515,7 @@
     </row>
     <row r="569" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="C569" s="2"/>
       <c r="E569" s="2">
@@ -7516,7 +7525,7 @@
     </row>
     <row r="570" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="C570" s="2"/>
       <c r="E570" s="2">
@@ -7526,7 +7535,7 @@
     </row>
     <row r="571" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="C571" s="2"/>
       <c r="E571" s="2">
@@ -7536,7 +7545,7 @@
     </row>
     <row r="572" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="C572" s="2"/>
       <c r="E572" s="2">
@@ -7546,7 +7555,7 @@
     </row>
     <row r="573" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="C573" s="2"/>
       <c r="E573" s="2">
@@ -7555,16 +7564,18 @@
       <c r="F573" s="2"/>
     </row>
     <row r="574" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A574" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="E574">
-        <v>1</v>
-      </c>
+      <c r="A574" t="s">
+        <v>730</v>
+      </c>
+      <c r="C574" s="2"/>
+      <c r="E574" s="2">
+        <v>1</v>
+      </c>
+      <c r="F574" s="2"/>
     </row>
     <row r="575" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="C575" s="2"/>
       <c r="E575" s="2">
@@ -7573,18 +7584,16 @@
       <c r="F575" s="2"/>
     </row>
     <row r="576" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A576" t="s">
-        <v>735</v>
-      </c>
-      <c r="C576" s="2"/>
-      <c r="E576" s="2">
-        <v>1</v>
-      </c>
-      <c r="F576" s="2"/>
+      <c r="A576" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="E576">
+        <v>1</v>
+      </c>
     </row>
     <row r="577" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="C577" s="2"/>
       <c r="E577" s="2">
@@ -7594,7 +7603,7 @@
     </row>
     <row r="578" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="C578" s="2"/>
       <c r="E578" s="2">
@@ -7604,7 +7613,7 @@
     </row>
     <row r="579" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C579" s="2"/>
       <c r="E579" s="2">
@@ -7614,7 +7623,7 @@
     </row>
     <row r="580" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C580" s="2"/>
       <c r="E580" s="2">
@@ -7624,7 +7633,7 @@
     </row>
     <row r="581" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="C581" s="2"/>
       <c r="E581" s="2">
@@ -7634,7 +7643,7 @@
     </row>
     <row r="582" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="C582" s="2"/>
       <c r="E582" s="2">
@@ -7644,7 +7653,7 @@
     </row>
     <row r="583" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="C583" s="2"/>
       <c r="E583" s="2">
@@ -7654,7 +7663,7 @@
     </row>
     <row r="584" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="C584" s="2"/>
       <c r="E584" s="2">
@@ -7664,7 +7673,7 @@
     </row>
     <row r="585" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="C585" s="2"/>
       <c r="E585" s="2">
@@ -7674,7 +7683,7 @@
     </row>
     <row r="586" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="C586" s="2"/>
       <c r="E586" s="2">
@@ -7683,42 +7692,36 @@
       <c r="F586" s="2"/>
     </row>
     <row r="587" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A587" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="E587">
-        <v>1</v>
-      </c>
+      <c r="A587" t="s">
+        <v>742</v>
+      </c>
+      <c r="C587" s="2"/>
+      <c r="E587" s="2">
+        <v>1</v>
+      </c>
+      <c r="F587" s="2"/>
     </row>
     <row r="588" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A588" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="B588" s="4"/>
-      <c r="C588" s="4"/>
-      <c r="D588" s="4"/>
-      <c r="E588" s="4"/>
-      <c r="F588" s="4"/>
-      <c r="G588" t="s">
-        <v>3</v>
-      </c>
+      <c r="A588" t="s">
+        <v>743</v>
+      </c>
+      <c r="C588" s="2"/>
+      <c r="E588" s="2">
+        <v>1</v>
+      </c>
+      <c r="F588" s="2"/>
     </row>
     <row r="589" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A589" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="B589" s="4"/>
-      <c r="C589" s="4"/>
-      <c r="D589" s="4"/>
-      <c r="E589" s="4"/>
-      <c r="F589" s="4"/>
-      <c r="G589" t="s">
-        <v>3</v>
+        <v>566</v>
+      </c>
+      <c r="E589">
+        <v>1</v>
       </c>
     </row>
     <row r="590" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A590" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B590" s="4"/>
       <c r="C590" s="4"/>
@@ -7731,7 +7734,7 @@
     </row>
     <row r="591" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A591" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B591" s="4"/>
       <c r="C591" s="4"/>
@@ -7744,7 +7747,7 @@
     </row>
     <row r="592" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A592" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B592" s="4"/>
       <c r="C592" s="4"/>
@@ -7757,15 +7760,20 @@
     </row>
     <row r="593" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A593" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="D593">
-        <v>1</v>
+        <v>570</v>
+      </c>
+      <c r="B593" s="4"/>
+      <c r="C593" s="4"/>
+      <c r="D593" s="4"/>
+      <c r="E593" s="4"/>
+      <c r="F593" s="4"/>
+      <c r="G593" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="594" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A594" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B594" s="4"/>
       <c r="C594" s="4"/>
@@ -7773,25 +7781,20 @@
       <c r="E594" s="4"/>
       <c r="F594" s="4"/>
       <c r="G594" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="595" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A595" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="B595" s="4"/>
-      <c r="C595" s="4"/>
-      <c r="D595" s="4"/>
-      <c r="E595" s="4"/>
-      <c r="F595" s="4"/>
-      <c r="G595" t="s">
-        <v>4</v>
+        <v>572</v>
+      </c>
+      <c r="D595">
+        <v>1</v>
       </c>
     </row>
     <row r="596" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A596" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B596" s="4"/>
       <c r="C596" s="4"/>
@@ -7804,7 +7807,7 @@
     </row>
     <row r="597" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A597" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B597" s="4"/>
       <c r="C597" s="4"/>
@@ -7817,7 +7820,7 @@
     </row>
     <row r="598" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A598" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B598" s="4"/>
       <c r="C598" s="4"/>
@@ -7830,7 +7833,7 @@
     </row>
     <row r="599" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A599" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B599" s="4"/>
       <c r="C599" s="4"/>
@@ -7843,7 +7846,7 @@
     </row>
     <row r="600" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A600" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B600" s="4"/>
       <c r="C600" s="4"/>
@@ -7856,7 +7859,7 @@
     </row>
     <row r="601" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A601" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B601" s="4"/>
       <c r="C601" s="4"/>
@@ -7869,7 +7872,7 @@
     </row>
     <row r="602" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A602" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B602" s="4"/>
       <c r="C602" s="4"/>
@@ -7882,7 +7885,7 @@
     </row>
     <row r="603" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A603" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B603" s="4"/>
       <c r="C603" s="4"/>
@@ -7895,7 +7898,7 @@
     </row>
     <row r="604" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A604" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B604" s="4"/>
       <c r="C604" s="4"/>
@@ -7908,7 +7911,7 @@
     </row>
     <row r="605" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A605" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B605" s="4"/>
       <c r="C605" s="4"/>
@@ -7921,7 +7924,7 @@
     </row>
     <row r="606" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A606" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B606" s="4"/>
       <c r="C606" s="4"/>
@@ -7934,7 +7937,7 @@
     </row>
     <row r="607" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A607" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B607" s="4"/>
       <c r="C607" s="4"/>
@@ -7947,7 +7950,7 @@
     </row>
     <row r="608" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A608" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B608" s="4"/>
       <c r="C608" s="4"/>
@@ -7960,7 +7963,7 @@
     </row>
     <row r="609" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A609" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B609" s="4"/>
       <c r="C609" s="4"/>
@@ -7973,7 +7976,7 @@
     </row>
     <row r="610" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A610" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B610" s="4"/>
       <c r="C610" s="4"/>
@@ -7986,7 +7989,7 @@
     </row>
     <row r="611" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A611" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B611" s="4"/>
       <c r="C611" s="4"/>
@@ -7999,7 +8002,7 @@
     </row>
     <row r="612" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A612" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B612" s="4"/>
       <c r="C612" s="4"/>
@@ -8012,7 +8015,7 @@
     </row>
     <row r="613" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A613" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B613" s="4"/>
       <c r="C613" s="4"/>
@@ -8025,7 +8028,7 @@
     </row>
     <row r="614" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A614" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B614" s="4"/>
       <c r="C614" s="4"/>
@@ -8038,7 +8041,7 @@
     </row>
     <row r="615" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A615" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B615" s="4"/>
       <c r="C615" s="4"/>
@@ -8051,7 +8054,7 @@
     </row>
     <row r="616" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A616" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B616" s="4"/>
       <c r="C616" s="4"/>
@@ -8064,7 +8067,7 @@
     </row>
     <row r="617" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A617" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B617" s="4"/>
       <c r="C617" s="4"/>
@@ -8077,7 +8080,7 @@
     </row>
     <row r="618" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A618" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B618" s="4"/>
       <c r="C618" s="4"/>
@@ -8090,7 +8093,7 @@
     </row>
     <row r="619" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A619" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B619" s="4"/>
       <c r="C619" s="4"/>
@@ -8103,7 +8106,7 @@
     </row>
     <row r="620" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A620" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B620" s="4"/>
       <c r="C620" s="4"/>
@@ -8116,7 +8119,7 @@
     </row>
     <row r="621" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A621" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B621" s="4"/>
       <c r="C621" s="4"/>
@@ -8129,7 +8132,7 @@
     </row>
     <row r="622" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A622" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B622" s="4"/>
       <c r="C622" s="4"/>
@@ -8142,7 +8145,7 @@
     </row>
     <row r="623" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A623" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B623" s="4"/>
       <c r="C623" s="4"/>
@@ -8155,7 +8158,7 @@
     </row>
     <row r="624" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A624" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B624" s="4"/>
       <c r="C624" s="4"/>
@@ -8168,7 +8171,7 @@
     </row>
     <row r="625" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A625" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B625" s="4"/>
       <c r="C625" s="4"/>
@@ -8181,26 +8184,36 @@
     </row>
     <row r="626" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A626" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="C626">
-        <v>1</v>
-      </c>
-      <c r="E626">
-        <v>1</v>
+        <v>603</v>
+      </c>
+      <c r="B626" s="4"/>
+      <c r="C626" s="4"/>
+      <c r="D626" s="4"/>
+      <c r="E626" s="4"/>
+      <c r="F626" s="4"/>
+      <c r="G626" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="627" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A627" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="E627">
-        <v>1</v>
+        <v>604</v>
+      </c>
+      <c r="B627" s="4"/>
+      <c r="C627" s="4"/>
+      <c r="D627" s="4"/>
+      <c r="E627" s="4"/>
+      <c r="F627" s="4"/>
+      <c r="G627" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="628" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A628" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
+      </c>
+      <c r="C628">
+        <v>1</v>
       </c>
       <c r="E628">
         <v>1</v>
@@ -8208,7 +8221,7 @@
     </row>
     <row r="629" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A629" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E629">
         <v>1</v>
@@ -8216,7 +8229,7 @@
     </row>
     <row r="630" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A630" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E630">
         <v>1</v>
@@ -8224,7 +8237,7 @@
     </row>
     <row r="631" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A631" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E631">
         <v>1</v>
@@ -8232,7 +8245,7 @@
     </row>
     <row r="632" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A632" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E632">
         <v>1</v>
@@ -8240,7 +8253,7 @@
     </row>
     <row r="633" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A633" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E633">
         <v>1</v>
@@ -8248,7 +8261,7 @@
     </row>
     <row r="634" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A634" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E634">
         <v>1</v>
@@ -8256,7 +8269,7 @@
     </row>
     <row r="635" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A635" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E635">
         <v>1</v>
@@ -8264,7 +8277,7 @@
     </row>
     <row r="636" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A636" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E636">
         <v>1</v>
@@ -8272,7 +8285,7 @@
     </row>
     <row r="637" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A637" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E637">
         <v>1</v>
@@ -8280,7 +8293,7 @@
     </row>
     <row r="638" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A638" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E638">
         <v>1</v>
@@ -8288,7 +8301,7 @@
     </row>
     <row r="639" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A639" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E639">
         <v>1</v>
@@ -8296,7 +8309,7 @@
     </row>
     <row r="640" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A640" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E640">
         <v>1</v>
@@ -8304,7 +8317,7 @@
     </row>
     <row r="641" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A641" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E641">
         <v>1</v>
@@ -8312,7 +8325,7 @@
     </row>
     <row r="642" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A642" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E642">
         <v>1</v>
@@ -8320,15 +8333,15 @@
     </row>
     <row r="643" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A643" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="D643">
+        <v>620</v>
+      </c>
+      <c r="E643">
         <v>1</v>
       </c>
     </row>
     <row r="644" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A644" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E644">
         <v>1</v>
@@ -8336,23 +8349,23 @@
     </row>
     <row r="645" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A645" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="E645">
+        <v>622</v>
+      </c>
+      <c r="D645">
         <v>1</v>
       </c>
     </row>
     <row r="646" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A646" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="D646">
+        <v>623</v>
+      </c>
+      <c r="E646">
         <v>1</v>
       </c>
     </row>
     <row r="647" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A647" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E647">
         <v>1</v>
@@ -8360,23 +8373,23 @@
     </row>
     <row r="648" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A648" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="E648">
+        <v>625</v>
+      </c>
+      <c r="D648">
         <v>1</v>
       </c>
     </row>
     <row r="649" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A649" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="D649">
+        <v>626</v>
+      </c>
+      <c r="E649">
         <v>1</v>
       </c>
     </row>
     <row r="650" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A650" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E650">
         <v>1</v>
@@ -8384,18 +8397,15 @@
     </row>
     <row r="651" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A651" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="E651">
-        <v>1</v>
-      </c>
-      <c r="H651" t="s">
-        <v>747</v>
+        <v>628</v>
+      </c>
+      <c r="D651">
+        <v>1</v>
       </c>
     </row>
     <row r="652" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A652" s="1" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E652">
         <v>1</v>
@@ -8403,15 +8413,15 @@
     </row>
     <row r="653" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A653" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="D653">
-        <v>1</v>
+        <v>630</v>
+      </c>
+      <c r="H653" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="654" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A654" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E654">
         <v>1</v>
@@ -8419,23 +8429,23 @@
     </row>
     <row r="655" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A655" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="E655">
+        <v>632</v>
+      </c>
+      <c r="D655">
         <v>1</v>
       </c>
     </row>
     <row r="656" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A656" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="D656">
+        <v>633</v>
+      </c>
+      <c r="E656">
         <v>1</v>
       </c>
     </row>
     <row r="657" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A657" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E657">
         <v>1</v>
@@ -8443,25 +8453,23 @@
     </row>
     <row r="658" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A658" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D658">
         <v>1</v>
       </c>
-      <c r="G658" s="1"/>
     </row>
     <row r="659" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A659" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="D659">
-        <v>1</v>
-      </c>
-      <c r="G659" s="1"/>
+        <v>636</v>
+      </c>
+      <c r="E659">
+        <v>1</v>
+      </c>
     </row>
     <row r="660" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A660" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D660">
         <v>1</v>
@@ -8470,7 +8478,7 @@
     </row>
     <row r="661" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A661" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D661">
         <v>1</v>
@@ -8479,7 +8487,7 @@
     </row>
     <row r="662" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A662" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D662">
         <v>1</v>
@@ -8488,7 +8496,7 @@
     </row>
     <row r="663" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A663" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D663">
         <v>1</v>
@@ -8497,7 +8505,7 @@
     </row>
     <row r="664" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A664" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D664">
         <v>1</v>
@@ -8506,21 +8514,16 @@
     </row>
     <row r="665" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A665" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="C665" s="2"/>
+        <v>642</v>
+      </c>
       <c r="D665">
         <v>1</v>
       </c>
-      <c r="E665" s="2">
-        <v>1</v>
-      </c>
-      <c r="F665" s="2"/>
       <c r="G665" s="1"/>
     </row>
     <row r="666" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A666" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D666">
         <v>1</v>
@@ -8529,34 +8532,39 @@
     </row>
     <row r="667" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A667" s="1" t="s">
-        <v>646</v>
-      </c>
+        <v>644</v>
+      </c>
+      <c r="C667" s="2"/>
       <c r="D667">
         <v>1</v>
       </c>
+      <c r="E667" s="2">
+        <v>1</v>
+      </c>
+      <c r="F667" s="2"/>
       <c r="G667" s="1"/>
     </row>
     <row r="668" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A668" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="E668">
+        <v>645</v>
+      </c>
+      <c r="D668">
         <v>1</v>
       </c>
       <c r="G668" s="1"/>
     </row>
     <row r="669" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A669" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="E669">
+        <v>646</v>
+      </c>
+      <c r="D669">
         <v>1</v>
       </c>
       <c r="G669" s="1"/>
     </row>
     <row r="670" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A670" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E670">
         <v>1</v>
@@ -8565,25 +8573,25 @@
     </row>
     <row r="671" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A671" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="D671">
+        <v>648</v>
+      </c>
+      <c r="E671">
         <v>1</v>
       </c>
       <c r="G671" s="1"/>
     </row>
     <row r="672" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A672" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="D672">
+        <v>649</v>
+      </c>
+      <c r="E672">
         <v>1</v>
       </c>
       <c r="G672" s="1"/>
     </row>
     <row r="673" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A673" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D673">
         <v>1</v>
@@ -8592,25 +8600,25 @@
     </row>
     <row r="674" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A674" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="E674">
+        <v>651</v>
+      </c>
+      <c r="D674">
         <v>1</v>
       </c>
       <c r="G674" s="1"/>
     </row>
     <row r="675" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A675" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="E675">
+        <v>652</v>
+      </c>
+      <c r="D675">
         <v>1</v>
       </c>
       <c r="G675" s="1"/>
     </row>
     <row r="676" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A676" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E676">
         <v>1</v>
@@ -8619,25 +8627,25 @@
     </row>
     <row r="677" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A677" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="D677">
+        <v>654</v>
+      </c>
+      <c r="E677">
         <v>1</v>
       </c>
       <c r="G677" s="1"/>
     </row>
     <row r="678" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A678" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="D678">
+        <v>655</v>
+      </c>
+      <c r="E678">
         <v>1</v>
       </c>
       <c r="G678" s="1"/>
     </row>
     <row r="679" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A679" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D679">
         <v>1</v>
@@ -8646,7 +8654,7 @@
     </row>
     <row r="680" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A680" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D680">
         <v>1</v>
@@ -8655,7 +8663,7 @@
     </row>
     <row r="681" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A681" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D681">
         <v>1</v>
@@ -8664,7 +8672,7 @@
     </row>
     <row r="682" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A682" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D682">
         <v>1</v>
@@ -8673,7 +8681,7 @@
     </row>
     <row r="683" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A683" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D683">
         <v>1</v>
@@ -8682,7 +8690,7 @@
     </row>
     <row r="684" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A684" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D684">
         <v>1</v>
@@ -8691,7 +8699,7 @@
     </row>
     <row r="685" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A685" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D685">
         <v>1</v>
@@ -8700,7 +8708,7 @@
     </row>
     <row r="686" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A686" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D686">
         <v>1</v>
@@ -8709,7 +8717,7 @@
     </row>
     <row r="687" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A687" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D687">
         <v>1</v>
@@ -8718,7 +8726,7 @@
     </row>
     <row r="688" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A688" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D688">
         <v>1</v>
@@ -8727,7 +8735,7 @@
     </row>
     <row r="689" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A689" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D689">
         <v>1</v>
@@ -8736,7 +8744,7 @@
     </row>
     <row r="690" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A690" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="D690">
         <v>1</v>
@@ -8745,7 +8753,7 @@
     </row>
     <row r="691" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A691" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D691">
         <v>1</v>
@@ -8754,7 +8762,7 @@
     </row>
     <row r="692" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A692" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D692">
         <v>1</v>
@@ -8763,7 +8771,7 @@
     </row>
     <row r="693" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A693" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D693">
         <v>1</v>
@@ -8772,7 +8780,7 @@
     </row>
     <row r="694" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A694" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D694">
         <v>1</v>
@@ -8781,7 +8789,7 @@
     </row>
     <row r="695" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A695" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D695">
         <v>1</v>
@@ -8790,7 +8798,7 @@
     </row>
     <row r="696" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A696" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D696">
         <v>1</v>
@@ -8799,7 +8807,7 @@
     </row>
     <row r="697" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A697" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D697">
         <v>1</v>
@@ -8808,7 +8816,7 @@
     </row>
     <row r="698" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A698" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D698">
         <v>1</v>
@@ -8817,7 +8825,7 @@
     </row>
     <row r="699" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A699" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D699">
         <v>1</v>
@@ -8826,7 +8834,7 @@
     </row>
     <row r="700" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A700" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D700">
         <v>1</v>
@@ -8835,7 +8843,7 @@
     </row>
     <row r="701" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A701" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D701">
         <v>1</v>
@@ -8844,7 +8852,7 @@
     </row>
     <row r="702" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A702" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D702">
         <v>1</v>
@@ -8853,7 +8861,7 @@
     </row>
     <row r="703" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A703" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D703">
         <v>1</v>
@@ -8862,7 +8870,7 @@
     </row>
     <row r="704" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A704" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D704">
         <v>1</v>
@@ -8871,7 +8879,7 @@
     </row>
     <row r="705" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A705" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D705">
         <v>1</v>
@@ -8880,7 +8888,7 @@
     </row>
     <row r="706" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A706" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D706">
         <v>1</v>
@@ -8889,7 +8897,7 @@
     </row>
     <row r="707" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A707" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D707">
         <v>1</v>
@@ -8898,7 +8906,7 @@
     </row>
     <row r="708" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A708" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D708">
         <v>1</v>
@@ -8907,7 +8915,7 @@
     </row>
     <row r="709" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A709" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D709">
         <v>1</v>
@@ -8916,43 +8924,43 @@
     </row>
     <row r="710" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A710" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
+      </c>
+      <c r="D710">
+        <v>1</v>
       </c>
       <c r="G710" s="1"/>
     </row>
     <row r="711" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A711" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
+      </c>
+      <c r="D711">
+        <v>1</v>
       </c>
       <c r="G711" s="1"/>
     </row>
     <row r="712" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A712" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="G712" s="1"/>
     </row>
     <row r="713" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A713" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="D713">
-        <v>1</v>
+        <v>690</v>
       </c>
       <c r="G713" s="1"/>
     </row>
     <row r="714" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A714" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="D714">
-        <v>1</v>
+        <v>691</v>
       </c>
       <c r="G714" s="1"/>
     </row>
     <row r="715" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A715" s="1" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D715">
         <v>1</v>
@@ -8961,7 +8969,7 @@
     </row>
     <row r="716" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A716" s="1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D716">
         <v>1</v>
@@ -8970,7 +8978,7 @@
     </row>
     <row r="717" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A717" s="1" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D717">
         <v>1</v>
@@ -8979,7 +8987,7 @@
     </row>
     <row r="718" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A718" s="1" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D718">
         <v>1</v>
@@ -8988,7 +8996,7 @@
     </row>
     <row r="719" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A719" s="1" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D719">
         <v>1</v>
@@ -8997,61 +9005,61 @@
     </row>
     <row r="720" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A720" s="1" t="s">
-        <v>699</v>
+        <v>697</v>
+      </c>
+      <c r="D720">
+        <v>1</v>
       </c>
       <c r="G720" s="1"/>
     </row>
     <row r="721" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A721" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
+      </c>
+      <c r="D721">
+        <v>1</v>
       </c>
       <c r="G721" s="1"/>
     </row>
     <row r="722" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A722" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="G722" s="1"/>
     </row>
     <row r="723" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A723" s="1" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="G723" s="1"/>
     </row>
     <row r="724" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A724" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="G724" s="1"/>
     </row>
     <row r="725" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A725" s="1" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="G725" s="1"/>
     </row>
     <row r="726" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A726" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="D726">
-        <v>1</v>
+        <v>703</v>
       </c>
       <c r="G726" s="1"/>
     </row>
     <row r="727" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A727" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="D727">
-        <v>1</v>
+        <v>704</v>
       </c>
       <c r="G727" s="1"/>
     </row>
     <row r="728" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A728" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D728">
         <v>1</v>
@@ -9060,25 +9068,25 @@
     </row>
     <row r="729" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A729" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="E729">
+        <v>706</v>
+      </c>
+      <c r="D729">
         <v>1</v>
       </c>
       <c r="G729" s="1"/>
     </row>
     <row r="730" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A730" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="E730">
+        <v>707</v>
+      </c>
+      <c r="D730">
         <v>1</v>
       </c>
       <c r="G730" s="1"/>
     </row>
     <row r="731" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A731" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E731">
         <v>1</v>
@@ -9087,7 +9095,7 @@
     </row>
     <row r="732" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A732" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E732">
         <v>1</v>
@@ -9096,7 +9104,7 @@
     </row>
     <row r="733" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A733" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E733">
         <v>1</v>
@@ -9105,7 +9113,7 @@
     </row>
     <row r="734" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A734" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="E734">
         <v>1</v>
@@ -9114,59 +9122,77 @@
     </row>
     <row r="735" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A735" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="D735">
+        <v>712</v>
+      </c>
+      <c r="E735">
         <v>1</v>
       </c>
       <c r="G735" s="1"/>
     </row>
     <row r="736" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A736" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="E736">
+        <v>1</v>
+      </c>
+      <c r="G736" s="1"/>
+    </row>
+    <row r="737" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A737" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="D737">
+        <v>1</v>
+      </c>
+      <c r="G737" s="1"/>
+    </row>
+    <row r="738" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A738" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="E736">
-        <v>1</v>
-      </c>
-      <c r="G736" s="1"/>
-    </row>
-    <row r="737" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A737" s="1" t="s">
+      <c r="E738">
+        <v>1</v>
+      </c>
+      <c r="G738" s="1"/>
+    </row>
+    <row r="739" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A739" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="D737">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="738" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A738" s="1" t="s">
+      <c r="D739">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="740" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A740" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="E738">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="739" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A739" s="1" t="s">
+      <c r="E740">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="741" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A741" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="E739">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="740" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A740" s="1" t="s">
+      <c r="E741">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="742" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A742" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="E740">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="741" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A741" s="1"/>
-    </row>
-    <row r="742" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A742" s="1"/>
+      <c r="E742">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="743" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A743" s="1"/>
+    </row>
+    <row r="744" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A744" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
